--- a/biology/Médecine/Association_Aïda/Association_Aïda.xlsx
+++ b/biology/Médecine/Association_Aïda/Association_Aïda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_A%C3%AFda</t>
+          <t>Association_Aïda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association Aïda est une association française de soutien aux jeunes touchés par un cancer et leurs familles fondée le 10 janvier 2015[1] par Léa Moukanas. Elle permet à des jeunes bénévoles, notamment mineurs, de rendre visite à d'autres jeunes hospitalisés.
-Ses missions fondamentales sont l'aide aux patients, le soutien à la recherche et la sensibilisation des jeunes face au cancer[2]. En 2021, l'association compte plus de 2 500 bénévoles, accompagne 2 200 patients et sensibilise plus de 50 000 jeunes du primaire à l’université[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association Aïda est une association française de soutien aux jeunes touchés par un cancer et leurs familles fondée le 10 janvier 2015 par Léa Moukanas. Elle permet à des jeunes bénévoles, notamment mineurs, de rendre visite à d'autres jeunes hospitalisés.
+Ses missions fondamentales sont l'aide aux patients, le soutien à la recherche et la sensibilisation des jeunes face au cancer. En 2021, l'association compte plus de 2 500 bénévoles, accompagne 2 200 patients et sensibilise plus de 50 000 jeunes du primaire à l’université.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_A%C3%AFda</t>
+          <t>Association_Aïda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25 octobre 2014, Aïda Younès Frangié décède d’une leucémie foudroyante. Profondément choquée par le départ de sa grand-mère en à peine 17 jours, sa petite fille Léa Moukanas décide de s'engager bénévolement auprès d'associations pour accompagner les malades et les aider à vaincre le cancer. Mais, alors âgée de 15 ans, elle se voit refuser ses candidatures en raison de son statut de mineure[4].
-Consciente que plus de 3 500 jeunes sont touchés par un cancer avant l’âge de 25 ans[5], elle prend l'initiative début 2015 de fonder la première association créée par des lycéens en Europe : l'Association Aïda, dont le nom fait hommage à sa grand-mère décédée.
-Dès 2016, celle-ci rassemble 110 bénévoles et collecte 35 000 € au profit de 20 jeunes hospitalisés[6].
-En 2017, l'association compte 300 bénévoles et lève 200 000 € en faveur de ses actions[7]. Cette même année, Aïda crée le programme « Highway to Health », un weekend offert aux jeunes en traitement ou rémission afin de les sortir du milieu hospitalier[8]. Elle lance également l'opération « Noël à l'Hôpital »[9] dont l'objectif est de collecter des cadeaux à offrir aux jeunes hospitalisés pour les fêtes de fin d'année. Le succès de la première édition conduit l'association à renouveler l'appel aux dons tous les ans pour distribuer plus de 10 000 cadeaux dans plus de 50 structures hospitalières de 20 villes de France. L'opération est soutenue par plus de 100 personnalités publiques dont Benjamin Pavard, Cyril Hanouna[10], Brigitte Macron[11], et Claude Dartois[12].
-En 2018, Aïda réuni 650 bénévoles[13]. À l'été, l'association crée l'opération « Cartes Postales à l'Hôpital » qui permet à des inconnus d'envoyer une ou plusieurs cartes postales à des jeunes hospitalisés[14]. Avec pour but de recevoir 30 000 cartes au cours de la période estivale, l'initiative sera renouvelée chaque année depuis cette date[15].
-En 2019, l'association fédère 1 300 bénévoles dans 10 villes de France[16], dont la majorité est mineure[17]. En octobre, un collectif d'une quarantaine de détenus et surveillants de la prison centrale de Poissy « Robin des Murs » lève plus de 1 500 € de dons au terme d'un semi-marathon caritatif de 21 kilomètres[18].
-En 2020, Aïda compte 2 500 bénévoles, avec 80 % d'entre eux ayant moins de 18 ans[19]. La crise sanitaire liée à la COVID-19 oblige l'association à repenser son accompagnement auprès des jeunes malades, particulièrement fragiles face au virus. Afin de maintenir le lien social et continuer ses activités, elle bénéficie du soutien de Microsoft qui distribue 250 tablettes tactiles dans les hôpitaux pour organiser des visioconférences.
-En 2021, l'association lance le média « Jeune &amp; Cancer » sur Instagram et TikTok avec pour objectif de vulgariser le cancer et de partager les expériences des jeunes hospitalisés, en rémission ou guéris autour de sujets divers comme l'amitié, l'éducation ou la sexualité par exemple[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 octobre 2014, Aïda Younès Frangié décède d’une leucémie foudroyante. Profondément choquée par le départ de sa grand-mère en à peine 17 jours, sa petite fille Léa Moukanas décide de s'engager bénévolement auprès d'associations pour accompagner les malades et les aider à vaincre le cancer. Mais, alors âgée de 15 ans, elle se voit refuser ses candidatures en raison de son statut de mineure.
+Consciente que plus de 3 500 jeunes sont touchés par un cancer avant l’âge de 25 ans, elle prend l'initiative début 2015 de fonder la première association créée par des lycéens en Europe : l'Association Aïda, dont le nom fait hommage à sa grand-mère décédée.
+Dès 2016, celle-ci rassemble 110 bénévoles et collecte 35 000 € au profit de 20 jeunes hospitalisés.
+En 2017, l'association compte 300 bénévoles et lève 200 000 € en faveur de ses actions. Cette même année, Aïda crée le programme « Highway to Health », un weekend offert aux jeunes en traitement ou rémission afin de les sortir du milieu hospitalier. Elle lance également l'opération « Noël à l'Hôpital » dont l'objectif est de collecter des cadeaux à offrir aux jeunes hospitalisés pour les fêtes de fin d'année. Le succès de la première édition conduit l'association à renouveler l'appel aux dons tous les ans pour distribuer plus de 10 000 cadeaux dans plus de 50 structures hospitalières de 20 villes de France. L'opération est soutenue par plus de 100 personnalités publiques dont Benjamin Pavard, Cyril Hanouna, Brigitte Macron, et Claude Dartois.
+En 2018, Aïda réuni 650 bénévoles. À l'été, l'association crée l'opération « Cartes Postales à l'Hôpital » qui permet à des inconnus d'envoyer une ou plusieurs cartes postales à des jeunes hospitalisés. Avec pour but de recevoir 30 000 cartes au cours de la période estivale, l'initiative sera renouvelée chaque année depuis cette date.
+En 2019, l'association fédère 1 300 bénévoles dans 10 villes de France, dont la majorité est mineure. En octobre, un collectif d'une quarantaine de détenus et surveillants de la prison centrale de Poissy « Robin des Murs » lève plus de 1 500 € de dons au terme d'un semi-marathon caritatif de 21 kilomètres.
+En 2020, Aïda compte 2 500 bénévoles, avec 80 % d'entre eux ayant moins de 18 ans. La crise sanitaire liée à la COVID-19 oblige l'association à repenser son accompagnement auprès des jeunes malades, particulièrement fragiles face au virus. Afin de maintenir le lien social et continuer ses activités, elle bénéficie du soutien de Microsoft qui distribue 250 tablettes tactiles dans les hôpitaux pour organiser des visioconférences.
+En 2021, l'association lance le média « Jeune &amp; Cancer » sur Instagram et TikTok avec pour objectif de vulgariser le cancer et de partager les expériences des jeunes hospitalisés, en rémission ou guéris autour de sujets divers comme l'amitié, l'éducation ou la sexualité par exemple.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_A%C3%AFda</t>
+          <t>Association_Aïda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,24 +564,26 @@
           <t>Distinctions et prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le cadre de ses activités, l'association et sa présidente ont reçu plusieurs distinctions et prix dont en voici une liste non exhaustive :
 2015 - Prix Jeune et Bénévole
 2016 - Prix « Hype Awards », catégorie 2gether (DigiSchool)
-2018 - Prix du Public « Talents.START », catégorie Entrepreneurs sociaux, (Echos START)[21]
+2018 - Prix du Public « Talents.START », catégorie Entrepreneurs sociaux, (Echos START)
 2018 - Prix de la Fondation EDF
 2019 - Prix de la Fondation LEEM
 2019 - Médaille de la Ville de Paris
 2020 - Trophée de l’Engagement, Fondation Saint-Christophe
-2020 - Top 100 des projets qui changent le monde (Brut)[4]
-2020 - Top 24 des Z qui ont marqué 2020 (L'ADN)[22]
-2020 - Femme de Santé[23]
-2020 - Prix action innovante face à la COVID-19 (Fondation Feuilhade)[24]
+2020 - Top 100 des projets qui changent le monde (Brut)
+2020 - Top 24 des Z qui ont marqué 2020 (L'ADN)
+2020 - Femme de Santé
+2020 - Prix action innovante face à la COVID-19 (Fondation Feuilhade)
 2021 - Prix maintien du lien social par le numérique (Fondation Orange)
-2021 - Prix « Initiatives Remarquables » (Fondation des Usagers du Système de Santé)[25]
-2021 - Prix « Femme d'influence », catégorie espoir (Grazia)[26]
-2021 - Prix des associations de patients (Pfizer)[27]
+2021 - Prix « Initiatives Remarquables » (Fondation des Usagers du Système de Santé)
+2021 - Prix « Femme d'influence », catégorie espoir (Grazia)
+2021 - Prix des associations de patients (Pfizer)
 2023 - Obtention du haut patronage du ministère de la santé</t>
         </is>
       </c>
